--- a/data/pca/factorExposure/factorExposure_2014-07-25.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-07-25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,21 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,30 +732,60 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.004418290504370071</v>
+        <v>0.0195561495499551</v>
       </c>
       <c r="C2">
-        <v>0.1477431444224414</v>
+        <v>-0.07124860719998753</v>
       </c>
       <c r="D2">
-        <v>0.04389640602206229</v>
+        <v>0.03418195131702895</v>
       </c>
       <c r="E2">
-        <v>-0.2225363433636199</v>
+        <v>-0.01359181750679903</v>
       </c>
       <c r="F2">
-        <v>0.08353466225980093</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.02069726017420875</v>
+      </c>
+      <c r="G2">
+        <v>0.1602605824562067</v>
+      </c>
+      <c r="H2">
+        <v>-0.02387063584721368</v>
+      </c>
+      <c r="I2">
+        <v>0.04971717956667257</v>
+      </c>
+      <c r="J2">
+        <v>-0.1125143224809029</v>
+      </c>
+      <c r="K2">
+        <v>0.05583760163194514</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -757,30 +802,60 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.01256793429386879</v>
+        <v>0.02094211598311755</v>
       </c>
       <c r="C4">
-        <v>0.1711392239804438</v>
+        <v>-0.1403262476649872</v>
       </c>
       <c r="D4">
-        <v>0.04893794107863151</v>
+        <v>0.06737604761312474</v>
       </c>
       <c r="E4">
-        <v>-0.05264128520761175</v>
+        <v>-0.01124891771246861</v>
       </c>
       <c r="F4">
-        <v>-0.07143465755544604</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.05912491710386474</v>
+      </c>
+      <c r="G4">
+        <v>0.03406979948961331</v>
+      </c>
+      <c r="H4">
+        <v>0.0388939168370857</v>
+      </c>
+      <c r="I4">
+        <v>-0.008374008973799816</v>
+      </c>
+      <c r="J4">
+        <v>-0.0936042649082878</v>
+      </c>
+      <c r="K4">
+        <v>0.005737662735582455</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,230 +872,410 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.03652722873233519</v>
+        <v>0.041884101710823</v>
       </c>
       <c r="C6">
-        <v>0.06999207845213286</v>
+        <v>-0.08567843727671301</v>
       </c>
       <c r="D6">
-        <v>0.06030699760170855</v>
+        <v>0.02914892349119351</v>
       </c>
       <c r="E6">
-        <v>-0.04921027263309172</v>
+        <v>0.02062017561952619</v>
       </c>
       <c r="F6">
-        <v>0.01271162914360317</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.01789110048535059</v>
+      </c>
+      <c r="G6">
+        <v>0.04868107458938147</v>
+      </c>
+      <c r="H6">
+        <v>0.05256190022077151</v>
+      </c>
+      <c r="I6">
+        <v>-0.0599900882376333</v>
+      </c>
+      <c r="J6">
+        <v>0.002713345291409784</v>
+      </c>
+      <c r="K6">
+        <v>0.05759334751271769</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>-0.02001755720843367</v>
+        <v>0.02086293602229521</v>
       </c>
       <c r="C7">
-        <v>0.08102621182781961</v>
+        <v>-0.07365241728528731</v>
       </c>
       <c r="D7">
-        <v>0.04736298843202724</v>
+        <v>0.03455346670135465</v>
       </c>
       <c r="E7">
-        <v>0.006798940642714714</v>
+        <v>0.01677179958080342</v>
       </c>
       <c r="F7">
-        <v>0.009881562622649675</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.005376582204102236</v>
+      </c>
+      <c r="G7">
+        <v>-0.01535407892270792</v>
+      </c>
+      <c r="H7">
+        <v>0.03143630918522267</v>
+      </c>
+      <c r="I7">
+        <v>-0.001153302558282365</v>
+      </c>
+      <c r="J7">
+        <v>-0.1043681008816003</v>
+      </c>
+      <c r="K7">
+        <v>0.02585749808035684</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>0.01013244710567259</v>
+        <v>0.001549971317377574</v>
       </c>
       <c r="C8">
-        <v>0.0746689714033489</v>
+        <v>-0.06010780777274587</v>
       </c>
       <c r="D8">
-        <v>0.03432542920421304</v>
+        <v>0.04527131635737289</v>
       </c>
       <c r="E8">
-        <v>-0.0633645619367379</v>
+        <v>0.03078688598466644</v>
       </c>
       <c r="F8">
-        <v>-0.009998241747294455</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.0288855702607958</v>
+      </c>
+      <c r="G8">
+        <v>0.06427228591838843</v>
+      </c>
+      <c r="H8">
+        <v>0.05617804849751888</v>
+      </c>
+      <c r="I8">
+        <v>0.0004121534336960668</v>
+      </c>
+      <c r="J8">
+        <v>-0.01820773243248577</v>
+      </c>
+      <c r="K8">
+        <v>-0.01511778066026683</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.00872926888153705</v>
+        <v>0.01341925226747529</v>
       </c>
       <c r="C9">
-        <v>0.1195789967818181</v>
+        <v>-0.09776869026540919</v>
       </c>
       <c r="D9">
-        <v>0.05738118551104199</v>
+        <v>0.04218694981518113</v>
       </c>
       <c r="E9">
-        <v>-0.002825942855532869</v>
+        <v>-0.02182873514467196</v>
       </c>
       <c r="F9">
-        <v>-0.01592203853410426</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.02597587103932337</v>
+      </c>
+      <c r="G9">
+        <v>0.02421119132473154</v>
+      </c>
+      <c r="H9">
+        <v>0.04452801855364515</v>
+      </c>
+      <c r="I9">
+        <v>0.01162794244791595</v>
+      </c>
+      <c r="J9">
+        <v>-0.1007790899193283</v>
+      </c>
+      <c r="K9">
+        <v>0.01900179638572686</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.255119016659535</v>
+        <v>0.2435164128593339</v>
       </c>
       <c r="C10">
-        <v>-0.0778192122618732</v>
+        <v>0.1003941338290514</v>
       </c>
       <c r="D10">
-        <v>-0.03049620717256647</v>
+        <v>-0.008221307139832006</v>
       </c>
       <c r="E10">
-        <v>0.02114851862868789</v>
+        <v>0.04999001949185207</v>
       </c>
       <c r="F10">
-        <v>-0.03866652800274652</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.00141926545856873</v>
+      </c>
+      <c r="G10">
+        <v>0.01974284468534023</v>
+      </c>
+      <c r="H10">
+        <v>0.04324787936250354</v>
+      </c>
+      <c r="I10">
+        <v>-0.04084233309447926</v>
+      </c>
+      <c r="J10">
+        <v>-0.0184384570524317</v>
+      </c>
+      <c r="K10">
+        <v>-0.1473616388426457</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.006966535273397501</v>
+        <v>0.01808900505554853</v>
       </c>
       <c r="C11">
-        <v>0.06559477583188465</v>
+        <v>-0.07747736424619811</v>
       </c>
       <c r="D11">
-        <v>0.03137092201976775</v>
+        <v>0.04168354543085323</v>
       </c>
       <c r="E11">
-        <v>0.03338744785347409</v>
+        <v>-0.01270864718112319</v>
       </c>
       <c r="F11">
-        <v>-0.01182528655557474</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.003943846556776032</v>
+      </c>
+      <c r="G11">
+        <v>-0.01039544200939478</v>
+      </c>
+      <c r="H11">
+        <v>0.02079414029347449</v>
+      </c>
+      <c r="I11">
+        <v>0.00495746899081337</v>
+      </c>
+      <c r="J11">
+        <v>-0.02617233880670388</v>
+      </c>
+      <c r="K11">
+        <v>0.0259140848498794</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.00683103761989418</v>
+        <v>0.01749386516874508</v>
       </c>
       <c r="C12">
-        <v>0.04616561640058376</v>
+        <v>-0.05249282521232852</v>
       </c>
       <c r="D12">
-        <v>0.03396849833706291</v>
+        <v>0.02694912317129935</v>
       </c>
       <c r="E12">
-        <v>0.02961432263600219</v>
+        <v>-0.008534342546713475</v>
       </c>
       <c r="F12">
-        <v>0.01289726681013521</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.01729905551049393</v>
+      </c>
+      <c r="G12">
+        <v>0.001791841868411535</v>
+      </c>
+      <c r="H12">
+        <v>0.02470570835214038</v>
+      </c>
+      <c r="I12">
+        <v>-0.01630730877177764</v>
+      </c>
+      <c r="J12">
+        <v>-0.02424217030546784</v>
+      </c>
+      <c r="K12">
+        <v>0.01153546901850973</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.01291668077125596</v>
+        <v>0.006965099105847392</v>
       </c>
       <c r="C13">
-        <v>0.120314675142588</v>
+        <v>-0.1072914027545218</v>
       </c>
       <c r="D13">
-        <v>0.07125072916617629</v>
+        <v>0.04348593130256381</v>
       </c>
       <c r="E13">
-        <v>0.0005705806663249886</v>
+        <v>-0.002642238072784005</v>
       </c>
       <c r="F13">
-        <v>0.07494548147285648</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.02817493285145543</v>
+      </c>
+      <c r="G13">
+        <v>0.1604345299164866</v>
+      </c>
+      <c r="H13">
+        <v>-0.02383922324283622</v>
+      </c>
+      <c r="I13">
+        <v>-0.06120542249520498</v>
+      </c>
+      <c r="J13">
+        <v>-0.2351488119736482</v>
+      </c>
+      <c r="K13">
+        <v>-0.1864024026405016</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.01304245710123694</v>
+        <v>0.0217624747105745</v>
       </c>
       <c r="C14">
-        <v>0.08338940805863512</v>
+        <v>-0.07334621470267262</v>
       </c>
       <c r="D14">
-        <v>0.04679678173102299</v>
+        <v>0.04701538652178988</v>
       </c>
       <c r="E14">
-        <v>-0.0003932880595401242</v>
+        <v>0.01303014283012061</v>
       </c>
       <c r="F14">
-        <v>0.04161113228895482</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.0334038450263236</v>
+      </c>
+      <c r="G14">
+        <v>0.02742242573633184</v>
+      </c>
+      <c r="H14">
+        <v>0.1059053021477201</v>
+      </c>
+      <c r="I14">
+        <v>-0.06347816267486353</v>
+      </c>
+      <c r="J14">
+        <v>-0.1809680528767159</v>
+      </c>
+      <c r="K14">
+        <v>0.01482262797267227</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.003819042002202254</v>
+        <v>0.003197590097874504</v>
       </c>
       <c r="C15">
-        <v>0.07854932133605551</v>
+        <v>-0.0699915025623255</v>
       </c>
       <c r="D15">
-        <v>0.02940197162016642</v>
+        <v>0.03338871520386451</v>
       </c>
       <c r="E15">
-        <v>-0.01448326502106657</v>
+        <v>-0.006405961703862042</v>
       </c>
       <c r="F15">
-        <v>-0.002831023279945142</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>0.03628291362923654</v>
+      </c>
+      <c r="G15">
+        <v>0.01587907425719499</v>
+      </c>
+      <c r="H15">
+        <v>0.05490148247779053</v>
+      </c>
+      <c r="I15">
+        <v>-0.01751834964365849</v>
+      </c>
+      <c r="J15">
+        <v>-0.06435589501990316</v>
+      </c>
+      <c r="K15">
+        <v>0.0224509910263828</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.007823351288520354</v>
+        <v>0.016884617113433</v>
       </c>
       <c r="C16">
-        <v>0.05313780015443078</v>
+        <v>-0.05931597429431313</v>
       </c>
       <c r="D16">
-        <v>0.02472131902352681</v>
+        <v>0.02740374598527071</v>
       </c>
       <c r="E16">
-        <v>0.02181118748130532</v>
+        <v>-0.00729213846869828</v>
       </c>
       <c r="F16">
-        <v>-0.001128115442661099</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.0005323801533863748</v>
+      </c>
+      <c r="G16">
+        <v>-0.005669454453603475</v>
+      </c>
+      <c r="H16">
+        <v>0.01230068241693841</v>
+      </c>
+      <c r="I16">
+        <v>-0.00331079781460007</v>
+      </c>
+      <c r="J16">
+        <v>-0.0220102961123492</v>
+      </c>
+      <c r="K16">
+        <v>0.02026059279632447</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1292,25 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,10 +1327,25 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1077,150 +1362,270 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>-0.0104551238411526</v>
+        <v>0.01578745194056033</v>
       </c>
       <c r="C20">
-        <v>0.09503672785575218</v>
+        <v>-0.08346380004770093</v>
       </c>
       <c r="D20">
-        <v>0.0374917095745031</v>
+        <v>0.02750141108875509</v>
       </c>
       <c r="E20">
-        <v>0.05237928986313586</v>
+        <v>0.00298618017793782</v>
       </c>
       <c r="F20">
-        <v>-0.003297309600294945</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.01472092061595538</v>
+      </c>
+      <c r="G20">
+        <v>-0.01966163571695059</v>
+      </c>
+      <c r="H20">
+        <v>0.05512585505901496</v>
+      </c>
+      <c r="I20">
+        <v>-0.01992981079020359</v>
+      </c>
+      <c r="J20">
+        <v>-0.05436129658308524</v>
+      </c>
+      <c r="K20">
+        <v>0.0144397504085116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.009400075820613847</v>
+        <v>0.01471222186450368</v>
       </c>
       <c r="C21">
-        <v>0.07767026132505823</v>
+        <v>-0.06891503618968738</v>
       </c>
       <c r="D21">
-        <v>0.006124885370643878</v>
+        <v>0.01849667230776018</v>
       </c>
       <c r="E21">
-        <v>-0.01348695131562969</v>
+        <v>0.02244348033241021</v>
       </c>
       <c r="F21">
-        <v>0.09669334324943919</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.06599827608019229</v>
+      </c>
+      <c r="G21">
+        <v>0.06613596779378081</v>
+      </c>
+      <c r="H21">
+        <v>0.06874553289020124</v>
+      </c>
+      <c r="I21">
+        <v>0.00192819672115606</v>
+      </c>
+      <c r="J21">
+        <v>-0.1244384972312307</v>
+      </c>
+      <c r="K21">
+        <v>-0.01335735730203668</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>0.0006015818291491605</v>
+        <v>0.008534544671077608</v>
       </c>
       <c r="C22">
-        <v>0.2595981457600523</v>
+        <v>-0.166247643195388</v>
       </c>
       <c r="D22">
-        <v>-0.07088582282983279</v>
+        <v>0.02063920317699997</v>
       </c>
       <c r="E22">
-        <v>-0.3795568806761037</v>
+        <v>0.009946077524981112</v>
       </c>
       <c r="F22">
-        <v>-0.2208455142984911</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>0.3488580058506654</v>
+      </c>
+      <c r="G22">
+        <v>0.3806127403704336</v>
+      </c>
+      <c r="H22">
+        <v>-0.2759654795426083</v>
+      </c>
+      <c r="I22">
+        <v>-0.02080599061072733</v>
+      </c>
+      <c r="J22">
+        <v>0.2167443829173674</v>
+      </c>
+      <c r="K22">
+        <v>0.01366496744508588</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>-0.0002780997494512997</v>
+        <v>0.01366462388523321</v>
       </c>
       <c r="C23">
-        <v>0.2629455100219614</v>
+        <v>-0.1694637879910452</v>
       </c>
       <c r="D23">
-        <v>-0.07582956652746475</v>
+        <v>0.0204657454120952</v>
       </c>
       <c r="E23">
-        <v>-0.3735836897716046</v>
+        <v>0.006701923919176519</v>
       </c>
       <c r="F23">
-        <v>-0.218308893917355</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>0.3384199598736166</v>
+      </c>
+      <c r="G23">
+        <v>0.3708905804849337</v>
+      </c>
+      <c r="H23">
+        <v>-0.2609743383423151</v>
+      </c>
+      <c r="I23">
+        <v>-0.01784944475597657</v>
+      </c>
+      <c r="J23">
+        <v>0.1994292390648014</v>
+      </c>
+      <c r="K23">
+        <v>0.0186539138028381</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.005945469317646042</v>
+        <v>0.01764045871336859</v>
       </c>
       <c r="C24">
-        <v>0.0589979084042211</v>
+        <v>-0.06279838080398281</v>
       </c>
       <c r="D24">
-        <v>0.04255821872036061</v>
+        <v>0.04094084464349981</v>
       </c>
       <c r="E24">
-        <v>0.02778129766907174</v>
+        <v>-0.01157369269834761</v>
       </c>
       <c r="F24">
-        <v>-0.006759000167067743</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.002491592648202428</v>
+      </c>
+      <c r="G24">
+        <v>-0.006322728106329596</v>
+      </c>
+      <c r="H24">
+        <v>0.02188401497941767</v>
+      </c>
+      <c r="I24">
+        <v>-0.009223334495494383</v>
+      </c>
+      <c r="J24">
+        <v>-0.03919923016180102</v>
+      </c>
+      <c r="K24">
+        <v>0.02073530232548932</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>-0.006978094123556531</v>
+        <v>0.02225009156765255</v>
       </c>
       <c r="C25">
-        <v>0.06360110151596746</v>
+        <v>-0.0673294627179037</v>
       </c>
       <c r="D25">
-        <v>0.02148623046221242</v>
+        <v>0.03454330132753248</v>
       </c>
       <c r="E25">
-        <v>0.03042422321128581</v>
+        <v>-0.01777393002177307</v>
       </c>
       <c r="F25">
-        <v>0.00183031437050919</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.005165575736785393</v>
+      </c>
+      <c r="G25">
+        <v>-0.00476295514827067</v>
+      </c>
+      <c r="H25">
+        <v>0.0216452602169785</v>
+      </c>
+      <c r="I25">
+        <v>0.0001215583302413504</v>
+      </c>
+      <c r="J25">
+        <v>-0.03434747778786634</v>
+      </c>
+      <c r="K25">
+        <v>0.01029429731691734</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>-0.009999970321142249</v>
+        <v>0.02231943757111879</v>
       </c>
       <c r="C26">
-        <v>0.046764458904381</v>
+        <v>-0.05334966888102143</v>
       </c>
       <c r="D26">
-        <v>0.07593348559141296</v>
+        <v>0.06198520126787283</v>
       </c>
       <c r="E26">
-        <v>0.02257171817640779</v>
+        <v>-0.00905470709788055</v>
       </c>
       <c r="F26">
-        <v>0.03229616952514962</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.00470054732709069</v>
+      </c>
+      <c r="G26">
+        <v>-0.0128282753385409</v>
+      </c>
+      <c r="H26">
+        <v>0.04316584295038492</v>
+      </c>
+      <c r="I26">
+        <v>0.03239716018943076</v>
+      </c>
+      <c r="J26">
+        <v>-0.1100125038048371</v>
+      </c>
+      <c r="K26">
+        <v>0.06992254819790772</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1237,190 +1642,340 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>-0.3440088176374157</v>
+        <v>0.3049761327511313</v>
       </c>
       <c r="C28">
-        <v>-0.09770727106118483</v>
+        <v>0.1232036559390108</v>
       </c>
       <c r="D28">
-        <v>-0.03043329163391935</v>
+        <v>-0.03328072259452019</v>
       </c>
       <c r="E28">
-        <v>-3.414185451831006e-05</v>
+        <v>0.006466312656278945</v>
       </c>
       <c r="F28">
-        <v>-0.03038065291167785</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.01650058515988244</v>
+      </c>
+      <c r="G28">
+        <v>0.04945649927293339</v>
+      </c>
+      <c r="H28">
+        <v>0.02853146099843028</v>
+      </c>
+      <c r="I28">
+        <v>0.1023448831666387</v>
+      </c>
+      <c r="J28">
+        <v>-0.01877910721120076</v>
+      </c>
+      <c r="K28">
+        <v>-0.2049644300995711</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.008003049884783715</v>
+        <v>0.01826662685462346</v>
       </c>
       <c r="C29">
-        <v>0.07932483177567097</v>
+        <v>-0.08158709906655641</v>
       </c>
       <c r="D29">
-        <v>0.05284061934562533</v>
+        <v>0.04788681650958188</v>
       </c>
       <c r="E29">
-        <v>0.0186966936984711</v>
+        <v>-0.01207634030393247</v>
       </c>
       <c r="F29">
-        <v>0.03120287231387326</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.03595877915781574</v>
+      </c>
+      <c r="G29">
+        <v>0.02641527715889687</v>
+      </c>
+      <c r="H29">
+        <v>0.1418864192773515</v>
+      </c>
+      <c r="I29">
+        <v>-0.1136328778184798</v>
+      </c>
+      <c r="J29">
+        <v>-0.2591545660442624</v>
+      </c>
+      <c r="K29">
+        <v>-0.00328092200001798</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>-0.02396698838773679</v>
+        <v>0.03757380474646459</v>
       </c>
       <c r="C30">
-        <v>0.1645293181404871</v>
+        <v>-0.1430804688056134</v>
       </c>
       <c r="D30">
-        <v>0.06676073393515579</v>
+        <v>0.0547082295467097</v>
       </c>
       <c r="E30">
-        <v>-0.03312330573002353</v>
+        <v>0.0001067467335039599</v>
       </c>
       <c r="F30">
-        <v>-0.01946964790599026</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.04172918168876038</v>
+      </c>
+      <c r="G30">
+        <v>0.03526745063607889</v>
+      </c>
+      <c r="H30">
+        <v>0.04311029123060493</v>
+      </c>
+      <c r="I30">
+        <v>-0.02532182619766552</v>
+      </c>
+      <c r="J30">
+        <v>-0.0285583268837545</v>
+      </c>
+      <c r="K30">
+        <v>0.06324565575611811</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>0.003261837145881358</v>
+        <v>0.01532743440780037</v>
       </c>
       <c r="C31">
-        <v>0.05646926605586578</v>
+        <v>-0.07610231915814478</v>
       </c>
       <c r="D31">
-        <v>0.03447902382596723</v>
+        <v>0.04350609971597667</v>
       </c>
       <c r="E31">
-        <v>0.01562843164599501</v>
+        <v>-0.002148924564493233</v>
       </c>
       <c r="F31">
-        <v>0.0009579020510149904</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.01032749616482053</v>
+      </c>
+      <c r="G31">
+        <v>0.005976299440072007</v>
+      </c>
+      <c r="H31">
+        <v>0.03165815575756457</v>
+      </c>
+      <c r="I31">
+        <v>0.02586921442673363</v>
+      </c>
+      <c r="J31">
+        <v>-0.02808490865218435</v>
+      </c>
+      <c r="K31">
+        <v>0.01033083011704058</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>-0.01136766575789379</v>
+        <v>0.02177216779154881</v>
       </c>
       <c r="C32">
-        <v>0.08150631082261771</v>
+        <v>-0.0509529942056341</v>
       </c>
       <c r="D32">
-        <v>0.01995563589855754</v>
+        <v>0.02955088231884353</v>
       </c>
       <c r="E32">
-        <v>-0.1572484134298072</v>
+        <v>-0.01027242944289591</v>
       </c>
       <c r="F32">
-        <v>0.02773230556566563</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-7.647162101271461e-05</v>
+      </c>
+      <c r="G32">
+        <v>0.1076277825058986</v>
+      </c>
+      <c r="H32">
+        <v>0.03187658065630675</v>
+      </c>
+      <c r="I32">
+        <v>-0.02974312678007326</v>
+      </c>
+      <c r="J32">
+        <v>-0.1753233443613263</v>
+      </c>
+      <c r="K32">
+        <v>-0.2314914690208632</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>-0.008952260547482879</v>
+        <v>0.01768790904808921</v>
       </c>
       <c r="C33">
-        <v>0.09247218562026766</v>
+        <v>-0.09952714967282252</v>
       </c>
       <c r="D33">
-        <v>0.05690141534027951</v>
+        <v>0.05227541984045551</v>
       </c>
       <c r="E33">
-        <v>0.01595587242081417</v>
+        <v>0.0004546543053470983</v>
       </c>
       <c r="F33">
-        <v>0.001507484001170474</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.02113915902255231</v>
+      </c>
+      <c r="G33">
+        <v>0.01392508621875058</v>
+      </c>
+      <c r="H33">
+        <v>0.02709945315992975</v>
+      </c>
+      <c r="I33">
+        <v>-0.02016515122529779</v>
+      </c>
+      <c r="J33">
+        <v>-0.0597049796618529</v>
+      </c>
+      <c r="K33">
+        <v>-0.01709148047113638</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>-0.005092635837496513</v>
+        <v>0.01761274892968859</v>
       </c>
       <c r="C34">
-        <v>0.04745770207123196</v>
+        <v>-0.0490917115260894</v>
       </c>
       <c r="D34">
-        <v>0.02324907946181284</v>
+        <v>0.02159278264018451</v>
       </c>
       <c r="E34">
-        <v>0.01971013160727061</v>
+        <v>-0.01576288011397154</v>
       </c>
       <c r="F34">
-        <v>0.01987435726117292</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.005862943176901629</v>
+      </c>
+      <c r="G34">
+        <v>-0.006134088500851034</v>
+      </c>
+      <c r="H34">
+        <v>0.02467376389296392</v>
+      </c>
+      <c r="I34">
+        <v>-0.02059930753595118</v>
+      </c>
+      <c r="J34">
+        <v>0.003589466897434034</v>
+      </c>
+      <c r="K34">
+        <v>0.01064017133209328</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>-0.002476535545038183</v>
+        <v>0.01183842463416335</v>
       </c>
       <c r="C35">
-        <v>0.03047722716790146</v>
+        <v>-0.04854872193346535</v>
       </c>
       <c r="D35">
-        <v>0.01341418236477161</v>
+        <v>0.02298387249811373</v>
       </c>
       <c r="E35">
-        <v>0.006133673748257558</v>
+        <v>0.00426915848833387</v>
       </c>
       <c r="F35">
-        <v>0.01037853970034409</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>-0.00312986157760824</v>
+      </c>
+      <c r="G35">
+        <v>0.01136898253658657</v>
+      </c>
+      <c r="H35">
+        <v>0.09069487553771671</v>
+      </c>
+      <c r="I35">
+        <v>-0.03857759573637543</v>
+      </c>
+      <c r="J35">
+        <v>-0.1259169906626822</v>
+      </c>
+      <c r="K35">
+        <v>-0.01514068858149156</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>-0.007629059280160991</v>
+        <v>0.01403845287592815</v>
       </c>
       <c r="C36">
-        <v>0.04732684979285651</v>
+        <v>-0.04586073171515173</v>
       </c>
       <c r="D36">
-        <v>0.05212757639780233</v>
+        <v>0.04164772015379724</v>
       </c>
       <c r="E36">
-        <v>0.01644053065990998</v>
+        <v>0.006477572369201377</v>
       </c>
       <c r="F36">
-        <v>0.008080790124091037</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.01057309806278958</v>
+      </c>
+      <c r="G36">
+        <v>0.01202713006583871</v>
+      </c>
+      <c r="H36">
+        <v>0.03170083178620034</v>
+      </c>
+      <c r="I36">
+        <v>0.02253862802174345</v>
+      </c>
+      <c r="J36">
+        <v>-0.08239323906647882</v>
+      </c>
+      <c r="K36">
+        <v>0.02282199650966813</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,90 +1992,165 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>-0.02653212128190058</v>
+        <v>0.0117302672323801</v>
       </c>
       <c r="C38">
-        <v>0.04417086070351312</v>
+        <v>-0.05869794308965175</v>
       </c>
       <c r="D38">
-        <v>0.02863859472754409</v>
+        <v>0.03840401596522295</v>
       </c>
       <c r="E38">
-        <v>0.02824980465369609</v>
+        <v>0.02755138393189776</v>
       </c>
       <c r="F38">
-        <v>-0.003302883705607739</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.03613409436527306</v>
+      </c>
+      <c r="G38">
+        <v>-0.00173124498328843</v>
+      </c>
+      <c r="H38">
+        <v>0.04599297700821212</v>
+      </c>
+      <c r="I38">
+        <v>-0.02003289955027789</v>
+      </c>
+      <c r="J38">
+        <v>-0.07468580010502743</v>
+      </c>
+      <c r="K38">
+        <v>-0.06583847529558758</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>-0.005455459106401118</v>
+        <v>0.02638413056918543</v>
       </c>
       <c r="C39">
-        <v>0.1223330041274045</v>
+        <v>-0.1291317221984283</v>
       </c>
       <c r="D39">
-        <v>0.06130901956580286</v>
+        <v>0.0610545964913956</v>
       </c>
       <c r="E39">
-        <v>0.02818607948584975</v>
+        <v>-0.002570885105722902</v>
       </c>
       <c r="F39">
-        <v>0.01875688967636516</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.009758869342074422</v>
+      </c>
+      <c r="G39">
+        <v>-0.002570056242117829</v>
+      </c>
+      <c r="H39">
+        <v>0.05250665689297089</v>
+      </c>
+      <c r="I39">
+        <v>-0.03916063203680629</v>
+      </c>
+      <c r="J39">
+        <v>-0.02019875182066384</v>
+      </c>
+      <c r="K39">
+        <v>0.0967486665652211</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>-0.01711979345120982</v>
+        <v>0.02240259751578217</v>
       </c>
       <c r="C40">
-        <v>0.05208179830004127</v>
+        <v>-0.07506026405511612</v>
       </c>
       <c r="D40">
-        <v>0.0274772371101417</v>
+        <v>0.03606389411590364</v>
       </c>
       <c r="E40">
-        <v>-0.002967676948425478</v>
+        <v>-0.006538369395396531</v>
       </c>
       <c r="F40">
-        <v>-0.03178501527197711</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.005789186103441464</v>
+      </c>
+      <c r="G40">
+        <v>0.02400319236283867</v>
+      </c>
+      <c r="H40">
+        <v>0.01837259374259372</v>
+      </c>
+      <c r="I40">
+        <v>-0.1086935845418247</v>
+      </c>
+      <c r="J40">
+        <v>-0.08992228344357152</v>
+      </c>
+      <c r="K40">
+        <v>-0.03072129096309963</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>-0.01045718609702759</v>
+        <v>0.02270686598768418</v>
       </c>
       <c r="C41">
-        <v>0.02425936372234539</v>
+        <v>-0.04701871241519011</v>
       </c>
       <c r="D41">
-        <v>0.0004880158686483589</v>
+        <v>0.01668429489230668</v>
       </c>
       <c r="E41">
-        <v>0.01197736240364217</v>
+        <v>-0.002387561732901147</v>
       </c>
       <c r="F41">
-        <v>0.002734990081108667</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.00497725166438976</v>
+      </c>
+      <c r="G41">
+        <v>-0.01072910635849367</v>
+      </c>
+      <c r="H41">
+        <v>0.008845888055690027</v>
+      </c>
+      <c r="I41">
+        <v>0.00834724068987476</v>
+      </c>
+      <c r="J41">
+        <v>-0.02640705068533255</v>
+      </c>
+      <c r="K41">
+        <v>-0.02931302556699968</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1537,50 +2167,95 @@
       <c r="F42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>-0.006204498604507828</v>
+        <v>0.02019709858209975</v>
       </c>
       <c r="C43">
-        <v>0.02612726890915668</v>
+        <v>-0.04597645222464398</v>
       </c>
       <c r="D43">
-        <v>0.02297139449644178</v>
+        <v>0.02777443217347449</v>
       </c>
       <c r="E43">
-        <v>0.009367874375037635</v>
+        <v>-0.0002719494851060646</v>
       </c>
       <c r="F43">
-        <v>-0.004795964883433699</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.008416677040293204</v>
+      </c>
+      <c r="G43">
+        <v>-0.009399718773926749</v>
+      </c>
+      <c r="H43">
+        <v>0.01754361938545722</v>
+      </c>
+      <c r="I43">
+        <v>0.002314738682899934</v>
+      </c>
+      <c r="J43">
+        <v>-0.03735161822367133</v>
+      </c>
+      <c r="K43">
+        <v>-0.001396214891190396</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>-0.01006558397561739</v>
+        <v>0.01781146156494278</v>
       </c>
       <c r="C44">
-        <v>0.1091753184779895</v>
+        <v>-0.09584867212767287</v>
       </c>
       <c r="D44">
-        <v>0.04235314614490922</v>
+        <v>0.06055454216823164</v>
       </c>
       <c r="E44">
-        <v>-0.03991628841657247</v>
+        <v>0.01900213157778269</v>
       </c>
       <c r="F44">
-        <v>-0.03871359844148334</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.05634834463576857</v>
+      </c>
+      <c r="G44">
+        <v>0.03716788873368799</v>
+      </c>
+      <c r="H44">
+        <v>0.006198727795053096</v>
+      </c>
+      <c r="I44">
+        <v>-0.04430357284625929</v>
+      </c>
+      <c r="J44">
+        <v>-0.05965939005197945</v>
+      </c>
+      <c r="K44">
+        <v>0.06895924479563455</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,130 +2272,235 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>0.004773479744136551</v>
+        <v>0.007017187028686199</v>
       </c>
       <c r="C46">
-        <v>0.07093863181508012</v>
+        <v>-0.06869501753409159</v>
       </c>
       <c r="D46">
-        <v>0.06203079012688349</v>
+        <v>0.02810081061816617</v>
       </c>
       <c r="E46">
-        <v>-0.001603974700491033</v>
+        <v>0.01834469845412326</v>
       </c>
       <c r="F46">
-        <v>0.01731457129897584</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.01618120529767899</v>
+      </c>
+      <c r="G46">
+        <v>-0.002053316286788826</v>
+      </c>
+      <c r="H46">
+        <v>0.02455192580034704</v>
+      </c>
+      <c r="I46">
+        <v>-0.008409215887006376</v>
+      </c>
+      <c r="J46">
+        <v>-0.1001996123131446</v>
+      </c>
+      <c r="K46">
+        <v>0.01167816315185027</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>-0.008087395721166606</v>
+        <v>0.02124240387641833</v>
       </c>
       <c r="C47">
-        <v>0.0586185451607617</v>
+        <v>-0.07006801713504388</v>
       </c>
       <c r="D47">
-        <v>0.04293825935559626</v>
+        <v>0.04862151532399583</v>
       </c>
       <c r="E47">
-        <v>0.03946841577617554</v>
+        <v>-0.0139689780808965</v>
       </c>
       <c r="F47">
-        <v>0.03639347727311736</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.003952281603351197</v>
+      </c>
+      <c r="G47">
+        <v>-0.003503360168213516</v>
+      </c>
+      <c r="H47">
+        <v>0.03347884198629844</v>
+      </c>
+      <c r="I47">
+        <v>0.009514700683178796</v>
+      </c>
+      <c r="J47">
+        <v>-0.06331413943975371</v>
+      </c>
+      <c r="K47">
+        <v>-0.01973019671648133</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>-0.008591289827663115</v>
+        <v>0.01673003802839406</v>
       </c>
       <c r="C48">
-        <v>0.05193052552119781</v>
+        <v>-0.04656660418513653</v>
       </c>
       <c r="D48">
-        <v>0.06341761837037754</v>
+        <v>0.05357861446573468</v>
       </c>
       <c r="E48">
-        <v>0.02800666033481082</v>
+        <v>-0.01617396968367954</v>
       </c>
       <c r="F48">
-        <v>0.007276257593680794</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.01993770169627023</v>
+      </c>
+      <c r="G48">
+        <v>0.004173745763291587</v>
+      </c>
+      <c r="H48">
+        <v>0.04435616634530166</v>
+      </c>
+      <c r="I48">
+        <v>0.03895393689051979</v>
+      </c>
+      <c r="J48">
+        <v>-0.1089004137086946</v>
+      </c>
+      <c r="K48">
+        <v>0.05161580493122013</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.0243630993040334</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.05314596714862733</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.01351649152371976</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>-0.03366434936509751</v>
       </c>
       <c r="F49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>-0.03409718142869111</v>
+      </c>
+      <c r="G49">
+        <v>-0.06749258583405594</v>
+      </c>
+      <c r="H49">
+        <v>0.04580479233068171</v>
+      </c>
+      <c r="I49">
+        <v>-0.08646583463140166</v>
+      </c>
+      <c r="J49">
+        <v>0.09568054252785543</v>
+      </c>
+      <c r="K49">
+        <v>0.05428191762105501</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>0.003828333105294449</v>
+        <v>0.01572726176929767</v>
       </c>
       <c r="C50">
-        <v>0.05947837643203987</v>
+        <v>-0.07409848625615123</v>
       </c>
       <c r="D50">
-        <v>0.03461953670713593</v>
+        <v>0.03347296358487287</v>
       </c>
       <c r="E50">
-        <v>0.0004258911800949938</v>
+        <v>-0.009308036660917084</v>
       </c>
       <c r="F50">
-        <v>-0.005902641772494294</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.02022419798117879</v>
+      </c>
+      <c r="G50">
+        <v>0.007634974924685818</v>
+      </c>
+      <c r="H50">
+        <v>0.04788510384375459</v>
+      </c>
+      <c r="I50">
+        <v>0.003093519181651413</v>
+      </c>
+      <c r="J50">
+        <v>-0.04680180895759076</v>
+      </c>
+      <c r="K50">
+        <v>-0.04914048180651741</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>-0.002743905570571052</v>
+        <v>-0.005383176704468697</v>
       </c>
       <c r="C51">
-        <v>0.07396679222103715</v>
+        <v>-0.03385279467790374</v>
       </c>
       <c r="D51">
-        <v>0.04257242237941813</v>
+        <v>0.02412832696361461</v>
       </c>
       <c r="E51">
-        <v>-0.02976936874418606</v>
+        <v>0.0245426604396608</v>
       </c>
       <c r="F51">
-        <v>-0.008104714757146079</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.008253048859913081</v>
+      </c>
+      <c r="G51">
+        <v>0.02385671921111307</v>
+      </c>
+      <c r="H51">
+        <v>0.02795525649402324</v>
+      </c>
+      <c r="I51">
+        <v>-0.00781831979387446</v>
+      </c>
+      <c r="J51">
+        <v>-0.1052335581626171</v>
+      </c>
+      <c r="K51">
+        <v>0.02824796596290033</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,90 +2517,165 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>-0.03083002833672359</v>
+        <v>0.06210920393361594</v>
       </c>
       <c r="C53">
-        <v>0.1047066329411917</v>
+        <v>-0.1270574586901348</v>
       </c>
       <c r="D53">
-        <v>0.05822795751170477</v>
+        <v>0.05914775164555642</v>
       </c>
       <c r="E53">
-        <v>0.09967374250180625</v>
+        <v>-0.01559617394260219</v>
       </c>
       <c r="F53">
-        <v>-0.00381115106764839</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.04719510919049726</v>
+      </c>
+      <c r="G53">
+        <v>-0.04013281623192811</v>
+      </c>
+      <c r="H53">
+        <v>-0.005459121194108899</v>
+      </c>
+      <c r="I53">
+        <v>0.09433501414264635</v>
+      </c>
+      <c r="J53">
+        <v>0.04531545360612338</v>
+      </c>
+      <c r="K53">
+        <v>-0.0279186755718884</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>-0.00436315501288367</v>
+        <v>0.01714488623748934</v>
       </c>
       <c r="C54">
-        <v>0.07163161243553992</v>
+        <v>-0.07078133961747626</v>
       </c>
       <c r="D54">
-        <v>0.01487302869132813</v>
+        <v>0.01227300036573999</v>
       </c>
       <c r="E54">
-        <v>0.03039144241228937</v>
+        <v>-0.006053150562489424</v>
       </c>
       <c r="F54">
-        <v>-0.005343879406408766</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.001260510417006723</v>
+      </c>
+      <c r="G54">
+        <v>-0.001709520339279298</v>
+      </c>
+      <c r="H54">
+        <v>0.02021135806651331</v>
+      </c>
+      <c r="I54">
+        <v>-0.0002137000670181688</v>
+      </c>
+      <c r="J54">
+        <v>-0.05857588168654494</v>
+      </c>
+      <c r="K54">
+        <v>0.02878896192862354</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>-0.0146839874574649</v>
+        <v>0.0310721827903658</v>
       </c>
       <c r="C55">
-        <v>0.05698901179764808</v>
+        <v>-0.07941373029781859</v>
       </c>
       <c r="D55">
-        <v>0.05858453578961012</v>
+        <v>0.05392612916648187</v>
       </c>
       <c r="E55">
-        <v>0.07678881263710557</v>
+        <v>-0.01803191558737202</v>
       </c>
       <c r="F55">
-        <v>0.02175979464854925</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.02814157528226231</v>
+      </c>
+      <c r="G55">
+        <v>-0.03030951833594545</v>
+      </c>
+      <c r="H55">
+        <v>-0.00576980782658523</v>
+      </c>
+      <c r="I55">
+        <v>0.03928743701131591</v>
+      </c>
+      <c r="J55">
+        <v>0.005362620946647218</v>
+      </c>
+      <c r="K55">
+        <v>0.006534538903664918</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>-0.01247639340455501</v>
+        <v>0.05481983322075157</v>
       </c>
       <c r="C56">
-        <v>0.1349672104765035</v>
+        <v>-0.1556138930308611</v>
       </c>
       <c r="D56">
-        <v>0.06905055826622843</v>
+        <v>0.08531554894532192</v>
       </c>
       <c r="E56">
-        <v>0.0732727486979322</v>
+        <v>-0.03392715999863916</v>
       </c>
       <c r="F56">
-        <v>0.01740407856309563</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.09654258318840629</v>
+      </c>
+      <c r="G56">
+        <v>-0.05776296093712249</v>
+      </c>
+      <c r="H56">
+        <v>-0.003714860160703974</v>
+      </c>
+      <c r="I56">
+        <v>0.1762145550865385</v>
+      </c>
+      <c r="J56">
+        <v>0.08407282693319533</v>
+      </c>
+      <c r="K56">
+        <v>-0.0005901680815113278</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1837,250 +2692,445 @@
       <c r="F57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>-0.02210490684917538</v>
+        <v>0.01684416764853053</v>
       </c>
       <c r="C58">
-        <v>0.273624590034017</v>
+        <v>-0.1652676889785062</v>
       </c>
       <c r="D58">
-        <v>-0.0161874340423264</v>
+        <v>0.04458302680780182</v>
       </c>
       <c r="E58">
-        <v>-0.198474787552489</v>
+        <v>0.0841425242190247</v>
       </c>
       <c r="F58">
-        <v>-0.1470226162139868</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.2146359237231394</v>
+      </c>
+      <c r="G58">
+        <v>0.2664502483834672</v>
+      </c>
+      <c r="H58">
+        <v>-0.002650574161024996</v>
+      </c>
+      <c r="I58">
+        <v>0.06354066284316105</v>
+      </c>
+      <c r="J58">
+        <v>-0.1392366857186384</v>
+      </c>
+      <c r="K58">
+        <v>-0.03162758698581475</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>-0.2929837895418024</v>
+        <v>0.287353034791029</v>
       </c>
       <c r="C59">
-        <v>-0.0004187568460540788</v>
+        <v>0.05740198493102695</v>
       </c>
       <c r="D59">
-        <v>-0.009621809553131891</v>
+        <v>-0.009452706846367016</v>
       </c>
       <c r="E59">
-        <v>-0.05392482210001701</v>
+        <v>0.007650850012456399</v>
       </c>
       <c r="F59">
-        <v>0.05013324140181455</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.01221609984815043</v>
+      </c>
+      <c r="G59">
+        <v>0.06071640145414024</v>
+      </c>
+      <c r="H59">
+        <v>-0.0222088589098163</v>
+      </c>
+      <c r="I59">
+        <v>0.002911904127932375</v>
+      </c>
+      <c r="J59">
+        <v>0.006723636885498411</v>
+      </c>
+      <c r="K59">
+        <v>-0.03428523381048249</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>-0.1229661153005403</v>
+        <v>0.1571300819680745</v>
       </c>
       <c r="C60">
-        <v>0.1496472158073329</v>
+        <v>-0.1637126460925008</v>
       </c>
       <c r="D60">
-        <v>0.06152548965511332</v>
+        <v>0.03529409955357481</v>
       </c>
       <c r="E60">
-        <v>0.1739305841979997</v>
+        <v>-0.08620935153119423</v>
       </c>
       <c r="F60">
-        <v>0.2172428339680832</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.1194244947283412</v>
+      </c>
+      <c r="G60">
+        <v>-0.1074351606198134</v>
+      </c>
+      <c r="H60">
+        <v>-0.21146723955886</v>
+      </c>
+      <c r="I60">
+        <v>-0.2357578800065703</v>
+      </c>
+      <c r="J60">
+        <v>0.09814303235361402</v>
+      </c>
+      <c r="K60">
+        <v>0.04648434939725279</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>-0.005601338447635232</v>
+        <v>0.02664225315044649</v>
       </c>
       <c r="C61">
-        <v>0.08613119611610624</v>
+        <v>-0.09902747405506489</v>
       </c>
       <c r="D61">
-        <v>0.0683373297742433</v>
+        <v>0.05476379468920303</v>
       </c>
       <c r="E61">
-        <v>0.04706681335371749</v>
+        <v>-0.01167164428098467</v>
       </c>
       <c r="F61">
-        <v>0.02547843094881058</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.01425363660780182</v>
+      </c>
+      <c r="G61">
+        <v>-0.02259221438048991</v>
+      </c>
+      <c r="H61">
+        <v>0.05346271777598447</v>
+      </c>
+      <c r="I61">
+        <v>-0.01987058230211773</v>
+      </c>
+      <c r="J61">
+        <v>-0.02693722332791701</v>
+      </c>
+      <c r="K61">
+        <v>0.03483642922346343</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.002356558896801098</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.01510459659779422</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>0.004252341400386373</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>-0.02867629974312669</v>
       </c>
       <c r="F62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>0.02237223025797274</v>
+      </c>
+      <c r="G62">
+        <v>0.006640702112484658</v>
+      </c>
+      <c r="H62">
+        <v>0.01276181258335535</v>
+      </c>
+      <c r="I62">
+        <v>-0.02059615930572903</v>
+      </c>
+      <c r="J62">
+        <v>-0.01569013519400245</v>
+      </c>
+      <c r="K62">
+        <v>-0.006319997159267353</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>0.0004663591682927263</v>
+        <v>0.02660853743181809</v>
       </c>
       <c r="C63">
-        <v>0.05232151853182386</v>
+        <v>-0.06106219259111095</v>
       </c>
       <c r="D63">
-        <v>0.04289653173541851</v>
+        <v>0.06019664429725239</v>
       </c>
       <c r="E63">
-        <v>0.009519929991581867</v>
+        <v>-0.007435062448831123</v>
       </c>
       <c r="F63">
-        <v>-0.005838666457990608</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.00778552247053222</v>
+      </c>
+      <c r="G63">
+        <v>-0.005057216431634128</v>
+      </c>
+      <c r="H63">
+        <v>0.04767607938253825</v>
+      </c>
+      <c r="I63">
+        <v>0.007204876854931336</v>
+      </c>
+      <c r="J63">
+        <v>-0.04350822206757608</v>
+      </c>
+      <c r="K63">
+        <v>0.02000228849680058</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>0.003414615514060228</v>
+        <v>0.01786136966594127</v>
       </c>
       <c r="C64">
-        <v>0.08825908853539166</v>
+        <v>-0.08961336611781751</v>
       </c>
       <c r="D64">
-        <v>0.07548753892321358</v>
+        <v>0.0367530191940765</v>
       </c>
       <c r="E64">
-        <v>0.03034176352247318</v>
+        <v>-0.01970518824882151</v>
       </c>
       <c r="F64">
-        <v>-0.01869714923510138</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.0425096619372243</v>
+      </c>
+      <c r="G64">
+        <v>0.009943455093315673</v>
+      </c>
+      <c r="H64">
+        <v>0.009994426117339852</v>
+      </c>
+      <c r="I64">
+        <v>-0.03989408523399936</v>
+      </c>
+      <c r="J64">
+        <v>-0.04198075529068605</v>
+      </c>
+      <c r="K64">
+        <v>0.08274648334767645</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>-0.0151226285438738</v>
+        <v>0.0336719925270157</v>
       </c>
       <c r="C65">
-        <v>0.08852433153015445</v>
+        <v>-0.09145269828169705</v>
       </c>
       <c r="D65">
-        <v>0.02796292880253096</v>
+        <v>0.02254704826884283</v>
       </c>
       <c r="E65">
-        <v>-0.01759143098373759</v>
+        <v>0.01779570680909893</v>
       </c>
       <c r="F65">
-        <v>0.01406366125675467</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.005611133598921443</v>
+      </c>
+      <c r="G65">
+        <v>-0.009527266473215099</v>
+      </c>
+      <c r="H65">
+        <v>-0.01976094751298873</v>
+      </c>
+      <c r="I65">
+        <v>-0.08087945389752861</v>
+      </c>
+      <c r="J65">
+        <v>-0.01988458887466592</v>
+      </c>
+      <c r="K65">
+        <v>0.08683029358765983</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>0.00218148958426136</v>
+        <v>0.0245600342492285</v>
       </c>
       <c r="C66">
-        <v>0.1733766749820447</v>
+        <v>-0.170412059631502</v>
       </c>
       <c r="D66">
-        <v>0.04877557067819618</v>
+        <v>0.05419641113432793</v>
       </c>
       <c r="E66">
-        <v>0.00509847315802014</v>
+        <v>0.008102381088223838</v>
       </c>
       <c r="F66">
-        <v>0.02490583310617077</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.01069659896928349</v>
+      </c>
+      <c r="G66">
+        <v>0.009835969332331098</v>
+      </c>
+      <c r="H66">
+        <v>0.06214943587557696</v>
+      </c>
+      <c r="I66">
+        <v>-0.02715157723235528</v>
+      </c>
+      <c r="J66">
+        <v>-0.02821073634113684</v>
+      </c>
+      <c r="K66">
+        <v>0.07099054547826338</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>-0.02889003313444576</v>
+        <v>0.0209848645858969</v>
       </c>
       <c r="C67">
-        <v>0.01994484745333371</v>
+        <v>-0.0513722931278103</v>
       </c>
       <c r="D67">
-        <v>0.04241125378133162</v>
+        <v>0.03883524629029596</v>
       </c>
       <c r="E67">
-        <v>0.06673220590526679</v>
+        <v>0.02475300135750805</v>
       </c>
       <c r="F67">
-        <v>0.01272412384148126</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.01042514003771178</v>
+      </c>
+      <c r="G67">
+        <v>-0.02834746731262218</v>
+      </c>
+      <c r="H67">
+        <v>0.01097004302578435</v>
+      </c>
+      <c r="I67">
+        <v>-0.04086299542294251</v>
+      </c>
+      <c r="J67">
+        <v>-0.07315142381794588</v>
+      </c>
+      <c r="K67">
+        <v>-0.05064141197883055</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>-0.2960821057098864</v>
+        <v>0.2920313601897452</v>
       </c>
       <c r="C68">
-        <v>-0.009287387558743927</v>
+        <v>0.08298509113108685</v>
       </c>
       <c r="D68">
-        <v>0.008329549110369601</v>
+        <v>-0.02690609064879009</v>
       </c>
       <c r="E68">
-        <v>-0.04862070325665924</v>
+        <v>-0.01757972871585066</v>
       </c>
       <c r="F68">
-        <v>-0.007406387299157035</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.01732615986921006</v>
+      </c>
+      <c r="G68">
+        <v>0.0353975015285919</v>
+      </c>
+      <c r="H68">
+        <v>0.01127715461258577</v>
+      </c>
+      <c r="I68">
+        <v>0.02843357566130126</v>
+      </c>
+      <c r="J68">
+        <v>-0.03155745342507301</v>
+      </c>
+      <c r="K68">
+        <v>-0.0440687618556266</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>-0.01063793060056883</v>
+        <v>0.01030085811488</v>
       </c>
       <c r="C69">
-        <v>0.04911491233620274</v>
+        <v>-0.04435139922706129</v>
       </c>
       <c r="D69">
-        <v>0.0462416718824834</v>
+        <v>0.02696623189506641</v>
       </c>
       <c r="E69">
-        <v>0.04794721476726622</v>
+        <v>0.006005798547855196</v>
       </c>
       <c r="F69">
-        <v>0.004158937292391536</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.00970317240080916</v>
+      </c>
+      <c r="G69">
+        <v>-0.003110808673935717</v>
+      </c>
+      <c r="H69">
+        <v>-0.0008618924182173448</v>
+      </c>
+      <c r="I69">
+        <v>-0.01337657185770777</v>
+      </c>
+      <c r="J69">
+        <v>-0.03777067177638654</v>
+      </c>
+      <c r="K69">
+        <v>-0.02760826306950406</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,510 +3147,900 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>-0.2876323475593109</v>
+        <v>0.2740207852892473</v>
       </c>
       <c r="C71">
-        <v>-0.03377396423050852</v>
+        <v>0.08295135477772955</v>
       </c>
       <c r="D71">
-        <v>-0.008666958518629884</v>
+        <v>-0.02204659082124543</v>
       </c>
       <c r="E71">
-        <v>-0.03372029907251643</v>
+        <v>0.005982364713858121</v>
       </c>
       <c r="F71">
-        <v>-0.0347728616801472</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.04783816855813083</v>
+      </c>
+      <c r="G71">
+        <v>0.048297312543507</v>
+      </c>
+      <c r="H71">
+        <v>0.01285859476416906</v>
+      </c>
+      <c r="I71">
+        <v>0.03027583569199175</v>
+      </c>
+      <c r="J71">
+        <v>-0.04970873761431548</v>
+      </c>
+      <c r="K71">
+        <v>-0.114236406295595</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>-0.01762892235178694</v>
+        <v>0.05778982571184551</v>
       </c>
       <c r="C72">
-        <v>0.1303594315754197</v>
+        <v>-0.1342889130834822</v>
       </c>
       <c r="D72">
-        <v>0.07021632795671646</v>
+        <v>0.05328336547070343</v>
       </c>
       <c r="E72">
-        <v>0.0355681612290642</v>
+        <v>-0.03600346857439871</v>
       </c>
       <c r="F72">
-        <v>-0.02530560221673077</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.02231402226651605</v>
+      </c>
+      <c r="G72">
+        <v>-0.02131067440134761</v>
+      </c>
+      <c r="H72">
+        <v>0.02572575589968041</v>
+      </c>
+      <c r="I72">
+        <v>0.01527631587030772</v>
+      </c>
+      <c r="J72">
+        <v>-0.03951266371442938</v>
+      </c>
+      <c r="K72">
+        <v>0.1080802728502407</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>-0.0972139311358461</v>
+        <v>0.1599774159476691</v>
       </c>
       <c r="C73">
-        <v>0.112379154046887</v>
+        <v>-0.1960789792077963</v>
       </c>
       <c r="D73">
-        <v>0.101210778789769</v>
+        <v>0.077200141111453</v>
       </c>
       <c r="E73">
-        <v>0.2570286091602882</v>
+        <v>-0.0424634144382867</v>
       </c>
       <c r="F73">
-        <v>0.2384666454656457</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.1434630115044961</v>
+      </c>
+      <c r="G73">
+        <v>-0.1979478974282259</v>
+      </c>
+      <c r="H73">
+        <v>-0.2693554280578387</v>
+      </c>
+      <c r="I73">
+        <v>-0.3948867348348861</v>
+      </c>
+      <c r="J73">
+        <v>0.1102545819523899</v>
+      </c>
+      <c r="K73">
+        <v>-0.09914654330882844</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>-0.01628552763251365</v>
+        <v>0.03999399813848975</v>
       </c>
       <c r="C74">
-        <v>0.08073993372964805</v>
+        <v>-0.0974430063807038</v>
       </c>
       <c r="D74">
-        <v>0.07250271194613908</v>
+        <v>0.04455010905702624</v>
       </c>
       <c r="E74">
-        <v>0.06737675744843027</v>
+        <v>-0.01925852312696182</v>
       </c>
       <c r="F74">
-        <v>0.01800156844971712</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.007002135549740995</v>
+      </c>
+      <c r="G74">
+        <v>-0.03117884846150128</v>
+      </c>
+      <c r="H74">
+        <v>-0.0121213375406442</v>
+      </c>
+      <c r="I74">
+        <v>0.06285333586018081</v>
+      </c>
+      <c r="J74">
+        <v>-0.01209826242173255</v>
+      </c>
+      <c r="K74">
+        <v>0.0167781287331112</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>-0.03191813481313368</v>
+        <v>0.06623666200424699</v>
       </c>
       <c r="C75">
-        <v>0.1377118018987702</v>
+        <v>-0.1600429302093322</v>
       </c>
       <c r="D75">
-        <v>0.05910045709437007</v>
+        <v>0.09042371014964024</v>
       </c>
       <c r="E75">
-        <v>0.1266059275220011</v>
+        <v>-0.03483405720798764</v>
       </c>
       <c r="F75">
-        <v>-0.0167630602456488</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.02846536585534857</v>
+      </c>
+      <c r="G75">
+        <v>-0.1025774142756188</v>
+      </c>
+      <c r="H75">
+        <v>0.06058130542884179</v>
+      </c>
+      <c r="I75">
+        <v>0.2059299469614004</v>
+      </c>
+      <c r="J75">
+        <v>0.08099240205876009</v>
+      </c>
+      <c r="K75">
+        <v>-0.1532860674438194</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>-0.008017274707138564</v>
+        <v>0.04905933565134192</v>
       </c>
       <c r="C76">
-        <v>0.1007141600956713</v>
+        <v>-0.1274108253900896</v>
       </c>
       <c r="D76">
-        <v>0.06287832184672348</v>
+        <v>0.07765725594795467</v>
       </c>
       <c r="E76">
-        <v>0.1005602032280833</v>
+        <v>-0.01783984414588411</v>
       </c>
       <c r="F76">
-        <v>0.02478259779005207</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.05556745675849523</v>
+      </c>
+      <c r="G76">
+        <v>-0.06609586529926756</v>
+      </c>
+      <c r="H76">
+        <v>0.02989874001408772</v>
+      </c>
+      <c r="I76">
+        <v>0.08553762784938389</v>
+      </c>
+      <c r="J76">
+        <v>0.07104767281164903</v>
+      </c>
+      <c r="K76">
+        <v>0.01609002238918147</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>-0.08177219667599235</v>
+        <v>0.05841658964920057</v>
       </c>
       <c r="C77">
-        <v>0.3400201130016673</v>
+        <v>-0.4055130186627089</v>
       </c>
       <c r="D77">
-        <v>-0.8654633162728491</v>
+        <v>-0.8968400626697922</v>
       </c>
       <c r="E77">
-        <v>0.265575036122009</v>
+        <v>-0.02553286128548348</v>
       </c>
       <c r="F77">
-        <v>0.05300602606026843</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.001005396312261747</v>
+      </c>
+      <c r="G77">
+        <v>-0.06307961165733116</v>
+      </c>
+      <c r="H77">
+        <v>0.0960075102379838</v>
+      </c>
+      <c r="I77">
+        <v>0.03158756898740284</v>
+      </c>
+      <c r="J77">
+        <v>-0.004968694861048663</v>
+      </c>
+      <c r="K77">
+        <v>-0.02626456840554585</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>-0.02437243120418464</v>
+        <v>0.03873700527852322</v>
       </c>
       <c r="C78">
-        <v>0.1334406741485563</v>
+        <v>-0.1116244228307081</v>
       </c>
       <c r="D78">
-        <v>0.1616442458153275</v>
+        <v>0.09160527681315508</v>
       </c>
       <c r="E78">
-        <v>-0.07833823879319646</v>
+        <v>0.03662418299339874</v>
       </c>
       <c r="F78">
-        <v>0.0860735002442589</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.03849912972009946</v>
+      </c>
+      <c r="G78">
+        <v>0.02356405812201165</v>
+      </c>
+      <c r="H78">
+        <v>0.01959262801127378</v>
+      </c>
+      <c r="I78">
+        <v>0.09255603337642501</v>
+      </c>
+      <c r="J78">
+        <v>-0.04761618071460796</v>
+      </c>
+      <c r="K78">
+        <v>0.103444362250557</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>-0.02182982502753461</v>
+        <v>0.05850152485989551</v>
       </c>
       <c r="C79">
-        <v>0.1410006163931818</v>
+        <v>-0.136707613630047</v>
       </c>
       <c r="D79">
-        <v>0.1018288352166307</v>
+        <v>0.06855160583662978</v>
       </c>
       <c r="E79">
-        <v>0.1021837711142938</v>
+        <v>-0.01009047982834108</v>
       </c>
       <c r="F79">
-        <v>0.03692135860802775</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>-0.05256520740316183</v>
+      </c>
+      <c r="G79">
+        <v>-0.03731860322233754</v>
+      </c>
+      <c r="H79">
+        <v>0.03022244994632937</v>
+      </c>
+      <c r="I79">
+        <v>0.2633831759707237</v>
+      </c>
+      <c r="J79">
+        <v>0.0248979790681674</v>
+      </c>
+      <c r="K79">
+        <v>-0.06163088628448966</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>-0.007143735854425011</v>
+        <v>0.0205770854359747</v>
       </c>
       <c r="C80">
-        <v>0.05769802669618501</v>
+        <v>-0.04469104980005729</v>
       </c>
       <c r="D80">
-        <v>0.03305650415068681</v>
+        <v>0.03452204274733661</v>
       </c>
       <c r="E80">
-        <v>-0.02591731232442454</v>
+        <v>0.01734317654102263</v>
       </c>
       <c r="F80">
-        <v>0.02153992036476577</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.02902325287052446</v>
+      </c>
+      <c r="G80">
+        <v>0.05960425834037474</v>
+      </c>
+      <c r="H80">
+        <v>-0.03131058090945171</v>
+      </c>
+      <c r="I80">
+        <v>-0.07869830542796061</v>
+      </c>
+      <c r="J80">
+        <v>0.008789724593582619</v>
+      </c>
+      <c r="K80">
+        <v>-0.02316423734979521</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>-2.680782555387136e-05</v>
+        <v>0.01762220702249042</v>
       </c>
       <c r="C81">
-        <v>0.08478743964319667</v>
+        <v>-0.09616466209982516</v>
       </c>
       <c r="D81">
-        <v>0.05671623813788594</v>
+        <v>0.05747767208191804</v>
       </c>
       <c r="E81">
-        <v>0.08680197101773932</v>
+        <v>-0.007148074781534828</v>
       </c>
       <c r="F81">
-        <v>0.005048360797150441</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.03517108359338544</v>
+      </c>
+      <c r="G81">
+        <v>-0.02282566183265284</v>
+      </c>
+      <c r="H81">
+        <v>0.02472626895922534</v>
+      </c>
+      <c r="I81">
+        <v>0.120681566017566</v>
+      </c>
+      <c r="J81">
+        <v>-0.02106748675667599</v>
+      </c>
+      <c r="K81">
+        <v>-0.06023047469485796</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>-0.01518186469594856</v>
+        <v>0.04874094844206683</v>
       </c>
       <c r="C82">
-        <v>0.07600858027394629</v>
+        <v>-0.1058598815061777</v>
       </c>
       <c r="D82">
-        <v>0.06716610039452996</v>
+        <v>0.0673088142330867</v>
       </c>
       <c r="E82">
-        <v>0.09122557199436621</v>
+        <v>-0.007041641921283324</v>
       </c>
       <c r="F82">
-        <v>0.02483318592564626</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>-0.0637126319181345</v>
+      </c>
+      <c r="G82">
+        <v>-0.0495250487522592</v>
+      </c>
+      <c r="H82">
+        <v>0.04024755422797055</v>
+      </c>
+      <c r="I82">
+        <v>0.07836355194466252</v>
+      </c>
+      <c r="J82">
+        <v>0.04719032874170032</v>
+      </c>
+      <c r="K82">
+        <v>-0.007915777599209143</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>-0.01580737238295233</v>
+        <v>-0.000569649607173991</v>
       </c>
       <c r="C83">
-        <v>0.008741397412843407</v>
+        <v>0.02275609014193862</v>
       </c>
       <c r="D83">
-        <v>-0.1050020129200388</v>
+        <v>-0.05650089859916795</v>
       </c>
       <c r="E83">
-        <v>-0.4516243434389898</v>
+        <v>-0.03193256190684311</v>
       </c>
       <c r="F83">
-        <v>0.7931254474094379</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.7322943291803868</v>
+      </c>
+      <c r="G83">
+        <v>0.6201564554975834</v>
+      </c>
+      <c r="H83">
+        <v>0.03378466353061316</v>
+      </c>
+      <c r="I83">
+        <v>-0.01304594928400372</v>
+      </c>
+      <c r="J83">
+        <v>0.1217033258959121</v>
+      </c>
+      <c r="K83">
+        <v>0.06602496944653538</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>0.008922195242330401</v>
+        <v>0.01384443358209261</v>
       </c>
       <c r="C84">
-        <v>0.09949855388179887</v>
+        <v>-0.05772523400417911</v>
       </c>
       <c r="D84">
-        <v>0.01757213380951997</v>
+        <v>0.08395922783531622</v>
       </c>
       <c r="E84">
-        <v>-0.07842351443432391</v>
+        <v>0.2349879630341644</v>
       </c>
       <c r="F84">
-        <v>-0.1448034055559083</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>0.1436929113020006</v>
+      </c>
+      <c r="G84">
+        <v>0.0896386338071406</v>
+      </c>
+      <c r="H84">
+        <v>0.6848976813776204</v>
+      </c>
+      <c r="I84">
+        <v>-0.317495020950794</v>
+      </c>
+      <c r="J84">
+        <v>0.4899334537089318</v>
+      </c>
+      <c r="K84">
+        <v>-0.1361882094336601</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>0.0004071200278977117</v>
+        <v>0.03399160891910757</v>
       </c>
       <c r="C85">
-        <v>0.0955730046870185</v>
+        <v>-0.115675404800297</v>
       </c>
       <c r="D85">
-        <v>0.05832071305648054</v>
+        <v>0.08210694270411048</v>
       </c>
       <c r="E85">
-        <v>0.09505919829707128</v>
+        <v>-0.02139610048016031</v>
       </c>
       <c r="F85">
-        <v>0.02450073667671606</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.08096801598785099</v>
+      </c>
+      <c r="G85">
+        <v>-0.09772310953549287</v>
+      </c>
+      <c r="H85">
+        <v>0.04323946468754539</v>
+      </c>
+      <c r="I85">
+        <v>0.2283626601598841</v>
+      </c>
+      <c r="J85">
+        <v>0.1057203584252833</v>
+      </c>
+      <c r="K85">
+        <v>-0.08586302094374113</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>-0.01370371043828628</v>
+        <v>0.01529135137737983</v>
       </c>
       <c r="C86">
-        <v>0.1058734930135613</v>
+        <v>-0.07896130419033402</v>
       </c>
       <c r="D86">
-        <v>0.004315313652080855</v>
+        <v>0.03751449450218808</v>
       </c>
       <c r="E86">
-        <v>-0.02808249898431323</v>
+        <v>0.05279611296626265</v>
       </c>
       <c r="F86">
-        <v>-0.04213918047314824</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.0373808512702055</v>
+      </c>
+      <c r="G86">
+        <v>0.07693104899543088</v>
+      </c>
+      <c r="H86">
+        <v>-0.07960467431152356</v>
+      </c>
+      <c r="I86">
+        <v>0.07754188598969987</v>
+      </c>
+      <c r="J86">
+        <v>-0.04204790414826733</v>
+      </c>
+      <c r="K86">
+        <v>-0.1074596715496566</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>-0.009020940925576041</v>
+        <v>0.02814023149182037</v>
       </c>
       <c r="C87">
-        <v>0.1625222052201831</v>
+        <v>-0.1167454367991637</v>
       </c>
       <c r="D87">
-        <v>0.03271033524447273</v>
+        <v>0.02057014444393829</v>
       </c>
       <c r="E87">
-        <v>-0.08596952154717701</v>
+        <v>-0.03270045470020051</v>
       </c>
       <c r="F87">
-        <v>-0.0675437917578877</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.02854975146752653</v>
+      </c>
+      <c r="G87">
+        <v>0.03852691128241067</v>
+      </c>
+      <c r="H87">
+        <v>0.0303092296661025</v>
+      </c>
+      <c r="I87">
+        <v>0.005718350336969066</v>
+      </c>
+      <c r="J87">
+        <v>-0.01401444599116584</v>
+      </c>
+      <c r="K87">
+        <v>0.08502767043488918</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>-0.007008257809742308</v>
+        <v>0.04002220115437211</v>
       </c>
       <c r="C88">
-        <v>0.03467985084059835</v>
+        <v>-0.06001073024931552</v>
       </c>
       <c r="D88">
-        <v>0.03868557353684677</v>
+        <v>0.03762514384163499</v>
       </c>
       <c r="E88">
-        <v>0.05172432829494302</v>
+        <v>-0.0174726829475201</v>
       </c>
       <c r="F88">
-        <v>0.00704329827880012</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.005550421677794218</v>
+      </c>
+      <c r="G88">
+        <v>-0.02093746492165329</v>
+      </c>
+      <c r="H88">
+        <v>-0.01292248808544371</v>
+      </c>
+      <c r="I88">
+        <v>-0.00449111431288727</v>
+      </c>
+      <c r="J88">
+        <v>-0.02002249035714111</v>
+      </c>
+      <c r="K88">
+        <v>0.00723793918268898</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>-0.4162080997408023</v>
+        <v>0.3891003866739849</v>
       </c>
       <c r="C89">
-        <v>-0.06239527565011099</v>
+        <v>0.1276330552823108</v>
       </c>
       <c r="D89">
-        <v>0.08753103480896939</v>
+        <v>-0.03565910079180491</v>
       </c>
       <c r="E89">
-        <v>-0.07698551687790352</v>
+        <v>-0.02665124700194335</v>
       </c>
       <c r="F89">
-        <v>-0.06166364872013947</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.06663079727443247</v>
+      </c>
+      <c r="G89">
+        <v>0.007494278268762449</v>
+      </c>
+      <c r="H89">
+        <v>0.07612597297202259</v>
+      </c>
+      <c r="I89">
+        <v>-0.01744630449189045</v>
+      </c>
+      <c r="J89">
+        <v>0.01964898521532971</v>
+      </c>
+      <c r="K89">
+        <v>0.7427446366404301</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>-0.3052309661801842</v>
+        <v>0.3142532108747316</v>
       </c>
       <c r="C90">
-        <v>-0.01396658050712947</v>
+        <v>0.08640572840561089</v>
       </c>
       <c r="D90">
-        <v>-0.009972582854938371</v>
+        <v>-0.02356539189985513</v>
       </c>
       <c r="E90">
-        <v>-0.04421271545631583</v>
+        <v>0.01888586950209311</v>
       </c>
       <c r="F90">
-        <v>0.02274286296912673</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.01452804484987555</v>
+      </c>
+      <c r="G90">
+        <v>0.03067209378842855</v>
+      </c>
+      <c r="H90">
+        <v>0.00401284426166311</v>
+      </c>
+      <c r="I90">
+        <v>-0.002119320019171626</v>
+      </c>
+      <c r="J90">
+        <v>-0.001849189452079432</v>
+      </c>
+      <c r="K90">
+        <v>-0.1106747828897292</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>-0.02653918145429483</v>
+        <v>0.05828812260039744</v>
       </c>
       <c r="C91">
-        <v>0.07696947200564393</v>
+        <v>-0.07834077892610755</v>
       </c>
       <c r="D91">
-        <v>0.06209200454091868</v>
+        <v>0.05600252685453909</v>
       </c>
       <c r="E91">
-        <v>0.05270358176196062</v>
+        <v>-0.01983833874782893</v>
       </c>
       <c r="F91">
-        <v>0.0484181071517982</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.06314157414693823</v>
+      </c>
+      <c r="G91">
+        <v>-0.01057518082384099</v>
+      </c>
+      <c r="H91">
+        <v>-0.007861738137215069</v>
+      </c>
+      <c r="I91">
+        <v>0.09417512977006742</v>
+      </c>
+      <c r="J91">
+        <v>0.05113850223488435</v>
+      </c>
+      <c r="K91">
+        <v>-0.02037254603053675</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>-0.3756118761505502</v>
+        <v>0.3500506704259547</v>
       </c>
       <c r="C92">
-        <v>-0.05718943095848607</v>
+        <v>0.123341606934544</v>
       </c>
       <c r="D92">
-        <v>-0.01862428641116464</v>
+        <v>-0.05119389929528945</v>
       </c>
       <c r="E92">
-        <v>0.005453549214981352</v>
+        <v>-0.01229358997604405</v>
       </c>
       <c r="F92">
-        <v>-0.1152710102892635</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.05966957672129053</v>
+      </c>
+      <c r="G92">
+        <v>0.01023530963204295</v>
+      </c>
+      <c r="H92">
+        <v>0.02470425608599647</v>
+      </c>
+      <c r="I92">
+        <v>0.0219001101674547</v>
+      </c>
+      <c r="J92">
+        <v>-0.06412490690302271</v>
+      </c>
+      <c r="K92">
+        <v>-0.1337556622793845</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>-0.3149954111323037</v>
+        <v>0.3064742487361308</v>
       </c>
       <c r="C93">
-        <v>-0.07389527078925735</v>
+        <v>0.1260252224050132</v>
       </c>
       <c r="D93">
-        <v>0.002800520880141388</v>
+        <v>-0.009783931800209072</v>
       </c>
       <c r="E93">
-        <v>-0.04972829663790686</v>
+        <v>0.0295981819530705</v>
       </c>
       <c r="F93">
-        <v>-0.02376145663416127</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.03198707629286988</v>
+      </c>
+      <c r="G93">
+        <v>0.03878169990506822</v>
+      </c>
+      <c r="H93">
+        <v>0.007546676117503</v>
+      </c>
+      <c r="I93">
+        <v>0.05113253222826965</v>
+      </c>
+      <c r="J93">
+        <v>-0.02311782945322659</v>
+      </c>
+      <c r="K93">
+        <v>-0.1367158419326817</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>-0.02111861440432522</v>
+        <v>0.0865099317461951</v>
       </c>
       <c r="C94">
-        <v>0.2019563088688306</v>
+        <v>-0.172186916533825</v>
       </c>
       <c r="D94">
-        <v>0.08854479483418587</v>
+        <v>0.1080824467325537</v>
       </c>
       <c r="E94">
-        <v>0.1001711039404995</v>
+        <v>-0.02085111709978087</v>
       </c>
       <c r="F94">
-        <v>-0.06508438097512446</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.07169053095736488</v>
+      </c>
+      <c r="G94">
+        <v>-0.07925838176398681</v>
+      </c>
+      <c r="H94">
+        <v>-0.001777452150125262</v>
+      </c>
+      <c r="I94">
+        <v>0.4473814852910179</v>
+      </c>
+      <c r="J94">
+        <v>0.2984852701824742</v>
+      </c>
+      <c r="K94">
+        <v>0.01770300621470499</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>-0.02495212183939328</v>
+        <v>0.04511708464122372</v>
       </c>
       <c r="C95">
-        <v>0.1243665429483018</v>
+        <v>-0.1343187982880706</v>
       </c>
       <c r="D95">
-        <v>0.05559056003272268</v>
+        <v>0.0687863189248058</v>
       </c>
       <c r="E95">
-        <v>0.1396787519889012</v>
+        <v>-0.02191857361630524</v>
       </c>
       <c r="F95">
-        <v>0.0866089518197616</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.01931322053686701</v>
+      </c>
+      <c r="G95">
+        <v>-0.0828931861411857</v>
+      </c>
+      <c r="H95">
+        <v>0.1065829496902398</v>
+      </c>
+      <c r="I95">
+        <v>-0.03738266805592254</v>
+      </c>
+      <c r="J95">
+        <v>0.04195621069248504</v>
+      </c>
+      <c r="K95">
+        <v>0.1210109818731347</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,70 +4057,130 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>-0.0005140109178786327</v>
+        <v>0.02338868260806331</v>
       </c>
       <c r="C97">
-        <v>-0.0007339716087128268</v>
+        <v>-0.0261771668038479</v>
       </c>
       <c r="D97">
-        <v>-0.0009062840481179462</v>
+        <v>0.002070841594493918</v>
       </c>
       <c r="E97">
-        <v>0.0004012633834199717</v>
+        <v>0.05022924017139199</v>
       </c>
       <c r="F97">
-        <v>-0.003271757876113108</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>0.01267344260652413</v>
+      </c>
+      <c r="G97">
+        <v>-0.01874851571387299</v>
+      </c>
+      <c r="H97">
+        <v>-0.02248955053336843</v>
+      </c>
+      <c r="I97">
+        <v>-0.001293083598873342</v>
+      </c>
+      <c r="J97">
+        <v>-0.03233877908929768</v>
+      </c>
+      <c r="K97">
+        <v>0.057836447600084</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>-0.09183980528333881</v>
+        <v>0.1392017019826242</v>
       </c>
       <c r="C98">
-        <v>0.158192282454629</v>
+        <v>-0.1603182737674943</v>
       </c>
       <c r="D98">
-        <v>0.1255185144432219</v>
+        <v>0.08427411603059892</v>
       </c>
       <c r="E98">
-        <v>0.1785536125162984</v>
+        <v>-0.05566468602400203</v>
       </c>
       <c r="F98">
-        <v>0.1604268839900889</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.1535456169156864</v>
+      </c>
+      <c r="G98">
+        <v>-0.1647881032214349</v>
+      </c>
+      <c r="H98">
+        <v>-0.2530955542550569</v>
+      </c>
+      <c r="I98">
+        <v>-0.3303179786590753</v>
+      </c>
+      <c r="J98">
+        <v>0.1481700912448773</v>
+      </c>
+      <c r="K98">
+        <v>-0.1146990060822749</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.02776811832373489</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>-0.05479023781125464</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>-0.02129643372919903</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>0.944650200841754</v>
       </c>
       <c r="F99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>-0.1246663667658448</v>
+      </c>
+      <c r="G99">
+        <v>-0.08839642216294617</v>
+      </c>
+      <c r="H99">
+        <v>-0.1922236988392555</v>
+      </c>
+      <c r="I99">
+        <v>0.048833956864389</v>
+      </c>
+      <c r="J99">
+        <v>-0.06264522572912651</v>
+      </c>
+      <c r="K99">
+        <v>0.06910943242892041</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,50 +4197,95 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>-0.008069323779550162</v>
+        <v>0.01834528900669603</v>
       </c>
       <c r="C101">
-        <v>0.0775137278026516</v>
+        <v>-0.08030736435669369</v>
       </c>
       <c r="D101">
-        <v>0.05325381434875124</v>
+        <v>0.0464943135474281</v>
       </c>
       <c r="E101">
-        <v>0.01729968542393751</v>
+        <v>-0.01058749518315183</v>
       </c>
       <c r="F101">
-        <v>0.0308369577958881</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.03576708946529093</v>
+      </c>
+      <c r="G101">
+        <v>0.02661700456467393</v>
+      </c>
+      <c r="H101">
+        <v>0.1416714943503104</v>
+      </c>
+      <c r="I101">
+        <v>-0.1154970254344618</v>
+      </c>
+      <c r="J101">
+        <v>-0.2571018643403632</v>
+      </c>
+      <c r="K101">
+        <v>-0.004753388516909617</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B102">
-        <v>-0.0004528570281077851</v>
+        <v>0.0006735079510537265</v>
       </c>
       <c r="C102">
-        <v>0.01007519614551988</v>
+        <v>-0.004940616432348977</v>
       </c>
       <c r="D102">
-        <v>0.00168179136445725</v>
+        <v>-0.0003349056677799992</v>
       </c>
       <c r="E102">
-        <v>0.01653246478095805</v>
+        <v>-0.002273857426930414</v>
       </c>
       <c r="F102">
-        <v>0.01271365092122948</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.006786867454368303</v>
+      </c>
+      <c r="G102">
+        <v>-0.003311093500414296</v>
+      </c>
+      <c r="H102">
+        <v>0.002933501219227741</v>
+      </c>
+      <c r="I102">
+        <v>-0.002014557784495356</v>
+      </c>
+      <c r="J102">
+        <v>-0.003219758399345418</v>
+      </c>
+      <c r="K102">
+        <v>0.02048515275829704</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2757,10 +4302,25 @@
       <c r="F103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +4335,21 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
